--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>0.7906680403874998</v>
+        <v>7.516436214168</v>
       </c>
       <c r="R2">
-        <v>3.162672161549999</v>
+        <v>30.065744856672</v>
       </c>
       <c r="S2">
-        <v>0.0002329553497644048</v>
+        <v>0.003302579598700917</v>
       </c>
       <c r="T2">
-        <v>0.0001506371072306538</v>
+        <v>0.001916326317460574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>52.04970918056251</v>
+        <v>49.55792214744</v>
       </c>
       <c r="R3">
-        <v>312.298255083375</v>
+        <v>297.34753288464</v>
       </c>
       <c r="S3">
-        <v>0.01533546012730071</v>
+        <v>0.02177481162277918</v>
       </c>
       <c r="T3">
-        <v>0.01487467032178407</v>
+        <v>0.01895229622333335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>40.1700234896125</v>
+        <v>22.99132425355733</v>
       </c>
       <c r="R4">
-        <v>241.020140937675</v>
+        <v>137.947945521344</v>
       </c>
       <c r="S4">
-        <v>0.01183533593628098</v>
+        <v>0.01010195207720802</v>
       </c>
       <c r="T4">
-        <v>0.01147971555717058</v>
+        <v>0.008792507210527508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>70.76447982264375</v>
+        <v>73.97119120624801</v>
       </c>
       <c r="R5">
-        <v>283.057919290575</v>
+        <v>295.884764824992</v>
       </c>
       <c r="S5">
-        <v>0.02084941252956297</v>
+        <v>0.03250153929449671</v>
       </c>
       <c r="T5">
-        <v>0.01348196207594374</v>
+        <v>0.01885906251359467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>2.226426950275</v>
+        <v>7.493081778671999</v>
       </c>
       <c r="R6">
-        <v>13.35856170165</v>
+        <v>44.958490672032</v>
       </c>
       <c r="S6">
-        <v>0.0006559744955316768</v>
+        <v>0.003292318102426541</v>
       </c>
       <c r="T6">
-        <v>0.0006362642059341829</v>
+        <v>0.002865558105373252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>40.91156119655</v>
+        <v>36.44795573406399</v>
       </c>
       <c r="R7">
-        <v>245.4693671793</v>
+        <v>218.6877344043839</v>
       </c>
       <c r="S7">
-        <v>0.01205381596463581</v>
+        <v>0.01601454087972965</v>
       </c>
       <c r="T7">
-        <v>0.01169163084153083</v>
+        <v>0.01393868878827893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>1.444834247688</v>
+        <v>14.425837554492</v>
       </c>
       <c r="R8">
-        <v>8.669005486128</v>
+        <v>86.55502532695202</v>
       </c>
       <c r="S8">
-        <v>0.0004256930220131228</v>
+        <v>0.006338439580161116</v>
       </c>
       <c r="T8">
-        <v>0.0004129020784617119</v>
+        <v>0.005516832319745318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
         <v>95.11349715036002</v>
@@ -1013,10 +1013,10 @@
         <v>856.0214743532401</v>
       </c>
       <c r="S9">
-        <v>0.02802338891188617</v>
+        <v>0.04179106777461652</v>
       </c>
       <c r="T9">
-        <v>0.04077204086834432</v>
+        <v>0.054560979195248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>73.405048267512</v>
+        <v>44.125846264656</v>
       </c>
       <c r="R10">
-        <v>660.645434407608</v>
+        <v>397.132616381904</v>
       </c>
       <c r="S10">
-        <v>0.02162740596578389</v>
+        <v>0.01938806044470596</v>
       </c>
       <c r="T10">
-        <v>0.03146633987366175</v>
+        <v>0.02531238417416865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>129.312099066852</v>
+        <v>141.968395347012</v>
       </c>
       <c r="R11">
-        <v>775.8725944011121</v>
+        <v>851.8103720820721</v>
       </c>
       <c r="S11">
-        <v>0.03809935867918017</v>
+        <v>0.06237822190915071</v>
       </c>
       <c r="T11">
-        <v>0.03695457424295484</v>
+        <v>0.05429257253689886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>4.068481010256</v>
+        <v>14.381014810968</v>
       </c>
       <c r="R12">
-        <v>36.616329092304</v>
+        <v>129.429133298712</v>
       </c>
       <c r="S12">
-        <v>0.00119870080532094</v>
+        <v>0.006318745316270318</v>
       </c>
       <c r="T12">
-        <v>0.001744024549533794</v>
+        <v>0.008249536326767356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>74.76010376515201</v>
+        <v>69.95233826661598</v>
       </c>
       <c r="R13">
-        <v>672.840933886368</v>
+        <v>629.5710443995439</v>
       </c>
       <c r="S13">
-        <v>0.02202664738099046</v>
+        <v>0.03073573149004945</v>
       </c>
       <c r="T13">
-        <v>0.03204720778183374</v>
+        <v>0.04012751278391344</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>1.158564369797</v>
+        <v>11.8040688008145</v>
       </c>
       <c r="R14">
-        <v>6.951386218782</v>
+        <v>70.824412804887</v>
       </c>
       <c r="S14">
-        <v>0.0003413490291808996</v>
+        <v>0.005186484085336861</v>
       </c>
       <c r="T14">
-        <v>0.0003310923983746581</v>
+        <v>0.004514196698724991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>76.26833947321502</v>
+        <v>77.82745785178501</v>
       </c>
       <c r="R15">
-        <v>686.4150552589351</v>
+        <v>700.4471206660651</v>
       </c>
       <c r="S15">
-        <v>0.02247102044143032</v>
+        <v>0.03419590976313656</v>
       </c>
       <c r="T15">
-        <v>0.0326937390289293</v>
+        <v>0.04464500240126235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>58.86105871455856</v>
+        <v>36.106362853086</v>
       </c>
       <c r="R16">
-        <v>529.7495284310271</v>
+        <v>324.957265677774</v>
       </c>
       <c r="S16">
-        <v>0.0173422951478259</v>
+        <v>0.0158644514427099</v>
       </c>
       <c r="T16">
-        <v>0.02523180792806031</v>
+        <v>0.02071208158111389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>103.6910571591505</v>
+        <v>116.1668915158095</v>
       </c>
       <c r="R17">
-        <v>622.146342954903</v>
+        <v>697.001349094857</v>
       </c>
       <c r="S17">
-        <v>0.0305506043675579</v>
+        <v>0.05104153019238809</v>
       </c>
       <c r="T17">
-        <v>0.0296326399290549</v>
+        <v>0.04442537628598259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>3.262379158869555</v>
+        <v>11.767392195633</v>
       </c>
       <c r="R18">
-        <v>29.361412429826</v>
+        <v>105.906529760697</v>
       </c>
       <c r="S18">
-        <v>0.0009611981757174578</v>
+        <v>0.00517036908022397</v>
       </c>
       <c r="T18">
-        <v>0.001398475089010654</v>
+        <v>0.006750255852261296</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>59.94763250056579</v>
+        <v>57.23911769822099</v>
       </c>
       <c r="R19">
-        <v>539.5286925050921</v>
+        <v>515.1520592839889</v>
       </c>
       <c r="S19">
-        <v>0.01766243351618603</v>
+        <v>0.02514978335097997</v>
       </c>
       <c r="T19">
-        <v>0.02569758652034069</v>
+        <v>0.03283469122105732</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>7.891003584202498</v>
+        <v>21.581230007799</v>
       </c>
       <c r="R20">
-        <v>31.56401433680999</v>
+        <v>86.32492003119602</v>
       </c>
       <c r="S20">
-        <v>0.002324934619905913</v>
+        <v>0.00948238339391248</v>
       </c>
       <c r="T20">
-        <v>0.001503384343811879</v>
+        <v>0.005502165899999311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>519.4650861304875</v>
+        <v>142.29095891967</v>
       </c>
       <c r="R21">
-        <v>3116.790516782925</v>
+        <v>853.7457535180201</v>
       </c>
       <c r="S21">
-        <v>0.1530505403640918</v>
+        <v>0.0625199502287946</v>
       </c>
       <c r="T21">
-        <v>0.1484517785308529</v>
+        <v>0.05441592961312338</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>400.9037714217975</v>
+        <v>66.01280750106534</v>
       </c>
       <c r="R22">
-        <v>2405.422628530785</v>
+        <v>396.076845006392</v>
       </c>
       <c r="S22">
-        <v>0.1181186964982964</v>
+        <v>0.0290047763453443</v>
       </c>
       <c r="T22">
-        <v>0.1145695437023894</v>
+        <v>0.02524509156320025</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>706.2417290080913</v>
+        <v>212.386461600489</v>
       </c>
       <c r="R23">
-        <v>2824.966916032365</v>
+        <v>849.5458464019561</v>
       </c>
       <c r="S23">
-        <v>0.2080807375477914</v>
+        <v>0.09331858544876802</v>
       </c>
       <c r="T23">
-        <v>0.1345523097293969</v>
+        <v>0.05414823651003309</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>22.220125447305</v>
+        <v>21.514174633446</v>
       </c>
       <c r="R24">
-        <v>133.32075268383</v>
+        <v>129.085047800676</v>
       </c>
       <c r="S24">
-        <v>0.006546738746198755</v>
+        <v>0.009452920533454215</v>
       </c>
       <c r="T24">
-        <v>0.00635002665222912</v>
+        <v>0.008227605052538618</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>408.30444579381</v>
+        <v>104.649556465102</v>
       </c>
       <c r="R25">
-        <v>2449.82667476286</v>
+        <v>627.8973387906119</v>
       </c>
       <c r="S25">
-        <v>0.1202991649107792</v>
+        <v>0.0459810314818193</v>
       </c>
       <c r="T25">
-        <v>0.1166844948361351</v>
+        <v>0.04002083436562153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>0.4936518819929999</v>
+        <v>22.097863365627</v>
       </c>
       <c r="R26">
-        <v>2.961911291958</v>
+        <v>132.587180193762</v>
       </c>
       <c r="S26">
-        <v>0.0001454451690941953</v>
+        <v>0.009709382298573571</v>
       </c>
       <c r="T26">
-        <v>0.0001410749284477515</v>
+        <v>0.00845082348614455</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>32.49712342183501</v>
+        <v>145.69726411491</v>
       </c>
       <c r="R27">
-        <v>292.474110796515</v>
+        <v>1311.27537703419</v>
       </c>
       <c r="S27">
-        <v>0.009574661383000159</v>
+        <v>0.06401661616517862</v>
       </c>
       <c r="T27">
-        <v>0.01393045239587924</v>
+        <v>0.0835778899351307</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>25.08006733854033</v>
+        <v>67.59308899505822</v>
       </c>
       <c r="R28">
-        <v>225.720606046863</v>
+        <v>608.337800955524</v>
       </c>
       <c r="S28">
-        <v>0.007389366409828719</v>
+        <v>0.02969912207962034</v>
       </c>
       <c r="T28">
-        <v>0.01075100339220282</v>
+        <v>0.03877415122873503</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>44.1816500203845</v>
+        <v>217.470783984997</v>
       </c>
       <c r="R29">
-        <v>265.089900122307</v>
+        <v>1304.824703909982</v>
       </c>
       <c r="S29">
-        <v>0.01301728564698656</v>
+        <v>0.09555254033135503</v>
       </c>
       <c r="T29">
-        <v>0.01262615082143599</v>
+        <v>0.08316673781725753</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>1.390064853999333</v>
+        <v>22.029202751758</v>
       </c>
       <c r="R30">
-        <v>12.510583685994</v>
+        <v>198.262824765822</v>
       </c>
       <c r="S30">
-        <v>0.0004095562584013362</v>
+        <v>0.009679214126299239</v>
       </c>
       <c r="T30">
-        <v>0.0005958752725421721</v>
+        <v>0.01263684870220355</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N31">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O31">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P31">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q31">
-        <v>25.54304480303867</v>
+        <v>107.1547636165127</v>
       </c>
       <c r="R31">
-        <v>229.887403227348</v>
+        <v>964.3928725486138</v>
       </c>
       <c r="S31">
-        <v>0.007525773943289145</v>
+        <v>0.04708177201802889</v>
       </c>
       <c r="T31">
-        <v>0.0109494666668084</v>
+        <v>0.06146834049335693</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N32">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O32">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P32">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q32">
-        <v>1.190925559995</v>
+        <v>8.982557620858501</v>
       </c>
       <c r="R32">
-        <v>7.14555335997</v>
+        <v>53.895345725151</v>
       </c>
       <c r="S32">
-        <v>0.0003508836404163213</v>
+        <v>0.00394676555451704</v>
       </c>
       <c r="T32">
-        <v>0.0003403405198914554</v>
+        <v>0.003435174145663104</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P33">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q33">
-        <v>78.39867793702501</v>
+        <v>59.22446204230501</v>
       </c>
       <c r="R33">
-        <v>705.5881014332251</v>
+        <v>533.0201583807451</v>
       </c>
       <c r="S33">
-        <v>0.02309868428593099</v>
+        <v>0.02602210602363288</v>
       </c>
       <c r="T33">
-        <v>0.03360694535097797</v>
+        <v>0.0339735656678851</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N34">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O34">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P34">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q34">
-        <v>60.50517445467167</v>
+        <v>27.47590600158911</v>
       </c>
       <c r="R34">
-        <v>544.546570092045</v>
+        <v>247.283154014302</v>
       </c>
       <c r="S34">
-        <v>0.01782670268389314</v>
+        <v>0.0120723922921917</v>
       </c>
       <c r="T34">
-        <v>0.02593658649426327</v>
+        <v>0.01576129971704672</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N35">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O35">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P35">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q35">
-        <v>106.5873710024175</v>
+        <v>88.3996708494935</v>
       </c>
       <c r="R35">
-        <v>639.5242260145051</v>
+        <v>530.398025096961</v>
       </c>
       <c r="S35">
-        <v>0.03140394833736738</v>
+        <v>0.03884113975837541</v>
       </c>
       <c r="T35">
-        <v>0.03046034318129717</v>
+        <v>0.0338064364966785</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N36">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O36">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P36">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q36">
-        <v>3.353504412856667</v>
+        <v>8.954647776808999</v>
       </c>
       <c r="R36">
-        <v>30.18153971571</v>
+        <v>80.591829991281</v>
       </c>
       <c r="S36">
-        <v>0.0009880465043846111</v>
+        <v>0.003934502498071878</v>
       </c>
       <c r="T36">
-        <v>0.001437537500666355</v>
+        <v>0.00513675099422417</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N37">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O37">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P37">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q37">
-        <v>61.62209857931335</v>
+        <v>43.55732600066632</v>
       </c>
       <c r="R37">
-        <v>554.59888721382</v>
+        <v>392.0159340059969</v>
       </c>
       <c r="S37">
-        <v>0.01815578320419428</v>
+        <v>0.01913826341699204</v>
       </c>
       <c r="T37">
-        <v>0.02641537528261725</v>
+        <v>0.02498625777544543</v>
       </c>
     </row>
   </sheetData>
